--- a/H2495_c.xlsx
+++ b/H2495_c.xlsx
@@ -6,16 +6,16 @@
     <x:workbookView activeTab="3"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Discharge" sheetId="2" r:id="R015764f8c4d84159"/>
-    <x:sheet name="Flammable Dispersion" sheetId="3" r:id="Rc4e374bbd8964f78"/>
-    <x:sheet name="Jet fire" sheetId="4" r:id="R3793b70d25844d2e"/>
-    <x:sheet name="Explosions" sheetId="5" r:id="Rbb82dbcfeb7b4fff"/>
+    <x:sheet name="Discharge" sheetId="2" r:id="R418b5b95d1a742fe"/>
+    <x:sheet name="Flammable Dispersion" sheetId="3" r:id="R9dae0e25bd734409"/>
+    <x:sheet name="Jet fire" sheetId="4" r:id="R29f011769e2e4270"/>
+    <x:sheet name="Explosions" sheetId="5" r:id="Rb37c95a451154fb9"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Path</x:t>
   </x:si>
@@ -62,10 +62,10 @@
     <x:t>Droplet diameter (um)</x:t>
   </x:si>
   <x:si>
-    <x:t>H2495\S3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SM</x:t>
+    <x:t>H2495\S3\SM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SM-EOBO</x:t>
   </x:si>
   <x:si>
     <x:t>0.1F</x:t>
@@ -74,19 +74,58 @@
     <x:t>METHANE</x:t>
   </x:si>
   <x:si>
-    <x:t>ME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H2495\S8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H2495\S9</x:t>
+    <x:t>H2495\S3\ME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ME-EOBO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S3\MA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MA-EOBO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S3\LA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LA-EOBO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S8\SM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S8\ME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S8\MA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S8\LA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S9\EOBN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SM-EOBN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S9\ME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ME-EOBN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S9\MA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MA-EOBN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H2495\S9\LA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LA-EOBN</x:t>
   </x:si>
   <x:si>
     <x:t>Averaging time (s)</x:t>
@@ -763,10 +802,10 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>17</x:v>
@@ -810,10 +849,10 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>17</x:v>
@@ -857,10 +896,10 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C5" t="s">
         <x:v>17</x:v>
@@ -904,7 +943,7 @@
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" t="s">
         <x:v>16</x:v>
@@ -951,10 +990,10 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" t="s">
         <x:v>17</x:v>
@@ -998,10 +1037,10 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" t="s">
         <x:v>17</x:v>
@@ -1045,10 +1084,10 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" t="s">
         <x:v>17</x:v>
@@ -1092,10 +1131,10 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" t="s">
         <x:v>17</x:v>
@@ -1139,10 +1178,10 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" t="s">
         <x:v>17</x:v>
@@ -1186,10 +1225,10 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" t="s">
         <x:v>17</x:v>
@@ -1233,10 +1272,10 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" t="s">
         <x:v>17</x:v>
@@ -1325,73 +1364,73 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L1" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O1" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="Q1" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="R1" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="S1" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T1" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U1" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="V1" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="W1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="X1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Y1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Z1" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="AA1" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AB1" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="AC1" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="AD1" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="AE1" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="AF1" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="AG1" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
@@ -1426,7 +1465,7 @@
         <x:v>0.047879</x:v>
       </x:c>
       <x:c r="K2" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L2">
         <x:v>3.51366</x:v>
@@ -1497,10 +1536,10 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>17</x:v>
@@ -1527,7 +1566,7 @@
         <x:v>0.15939</x:v>
       </x:c>
       <x:c r="K3" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L3">
         <x:v>6.31036</x:v>
@@ -1598,10 +1637,10 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>17</x:v>
@@ -1628,7 +1667,7 @@
         <x:v>0.580133</x:v>
       </x:c>
       <x:c r="K4" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L4">
         <x:v>12.9067</x:v>
@@ -1699,10 +1738,10 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C5" t="s">
         <x:v>17</x:v>
@@ -1729,7 +1768,7 @@
         <x:v>0.901935</x:v>
       </x:c>
       <x:c r="K5" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L5">
         <x:v>16.9869</x:v>
@@ -1800,7 +1839,7 @@
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" t="s">
         <x:v>16</x:v>
@@ -1830,7 +1869,7 @@
         <x:v>0.622119</x:v>
       </x:c>
       <x:c r="K6" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L6">
         <x:v>14.5722</x:v>
@@ -1901,10 +1940,10 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" t="s">
         <x:v>17</x:v>
@@ -1931,7 +1970,7 @@
         <x:v>2.07105</x:v>
       </x:c>
       <x:c r="K7" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L7">
         <x:v>31.3178</x:v>
@@ -2002,10 +2041,10 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" t="s">
         <x:v>17</x:v>
@@ -2032,7 +2071,7 @@
         <x:v>7.08922</x:v>
       </x:c>
       <x:c r="K8" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L8">
         <x:v>60.7447</x:v>
@@ -2103,10 +2142,10 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" t="s">
         <x:v>17</x:v>
@@ -2133,7 +2172,7 @@
         <x:v>9.60359</x:v>
       </x:c>
       <x:c r="K9" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L9">
         <x:v>73.3375</x:v>
@@ -2204,10 +2243,10 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" t="s">
         <x:v>17</x:v>
@@ -2234,7 +2273,7 @@
         <x:v>0.239101</x:v>
       </x:c>
       <x:c r="K10" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L10">
         <x:v>12.5504</x:v>
@@ -2305,10 +2344,10 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" t="s">
         <x:v>17</x:v>
@@ -2335,7 +2374,7 @@
         <x:v>0.795974</x:v>
       </x:c>
       <x:c r="K11" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L11">
         <x:v>37.1603</x:v>
@@ -2406,10 +2445,10 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" t="s">
         <x:v>17</x:v>
@@ -2436,7 +2475,7 @@
         <x:v>2.86707</x:v>
       </x:c>
       <x:c r="K12" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L12">
         <x:v>71.3209</x:v>
@@ -2507,10 +2546,10 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" t="s">
         <x:v>17</x:v>
@@ -2537,7 +2576,7 @@
         <x:v>4.37538</x:v>
       </x:c>
       <x:c r="K13" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L13">
         <x:v>73.8474</x:v>
@@ -2650,64 +2689,64 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L1" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M1" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N1" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O1" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P1" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="Q1" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="R1" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="S1" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="T1" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="U1" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="V1" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="W1" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="X1" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Y1" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="Z1" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="AA1" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AB1" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="AC1" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
@@ -2745,13 +2784,13 @@
         <x:v>32.9612</x:v>
       </x:c>
       <x:c r="L2" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M2" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N2" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O2">
         <x:v>3.56967</x:v>
@@ -2760,7 +2799,7 @@
         <x:v>3.19219</x:v>
       </x:c>
       <x:c r="Q2" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="R2">
         <x:v>4.22884</x:v>
@@ -2769,7 +2808,7 @@
         <x:v>1.02935</x:v>
       </x:c>
       <x:c r="T2" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="U2">
         <x:v>1.92894</x:v>
@@ -2778,7 +2817,7 @@
         <x:v>1.74021</x:v>
       </x:c>
       <x:c r="W2" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="X2">
         <x:v>0.697833</x:v>
@@ -2787,7 +2826,7 @@
         <x:v>0.188284</x:v>
       </x:c>
       <x:c r="Z2" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="AA2">
         <x:v>1.64072</x:v>
@@ -2796,15 +2835,15 @@
         <x:v>1.45198</x:v>
       </x:c>
       <x:c r="AC2" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>17</x:v>
@@ -2834,13 +2873,13 @@
         <x:v>62.1438</x:v>
       </x:c>
       <x:c r="L3" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M3" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N3" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O3">
         <x:v>6.60212</x:v>
@@ -2890,10 +2929,10 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>17</x:v>
@@ -2923,13 +2962,13 @@
         <x:v>109.426</x:v>
       </x:c>
       <x:c r="L4" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M4" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N4" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O4">
         <x:v>13.1376</x:v>
@@ -2979,10 +3018,10 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C5" t="s">
         <x:v>17</x:v>
@@ -3012,13 +3051,13 @@
         <x:v>128.773</x:v>
       </x:c>
       <x:c r="L5" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M5" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N5" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O5">
         <x:v>16.6451</x:v>
@@ -3068,7 +3107,7 @@
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" t="s">
         <x:v>16</x:v>
@@ -3101,13 +3140,13 @@
         <x:v>108.95</x:v>
       </x:c>
       <x:c r="L6" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M6" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N6" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O6">
         <x:v>14.0696</x:v>
@@ -3157,10 +3196,10 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" t="s">
         <x:v>17</x:v>
@@ -3190,13 +3229,13 @@
         <x:v>161.314</x:v>
       </x:c>
       <x:c r="L7" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M7" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N7" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O7">
         <x:v>26.664</x:v>
@@ -3246,10 +3285,10 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" t="s">
         <x:v>17</x:v>
@@ -3279,13 +3318,13 @@
         <x:v>213.131</x:v>
       </x:c>
       <x:c r="L8" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M8" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N8" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O8">
         <x:v>49.9069</x:v>
@@ -3335,10 +3374,10 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" t="s">
         <x:v>17</x:v>
@@ -3368,13 +3407,13 @@
         <x:v>226.115</x:v>
       </x:c>
       <x:c r="L9" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M9" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N9" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O9">
         <x:v>57.8737</x:v>
@@ -3424,10 +3463,10 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" t="s">
         <x:v>17</x:v>
@@ -3457,13 +3496,13 @@
         <x:v>41.0803</x:v>
       </x:c>
       <x:c r="L10" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M10" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N10" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O10">
         <x:v>16.316</x:v>
@@ -3513,10 +3552,10 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" t="s">
         <x:v>17</x:v>
@@ -3546,13 +3585,13 @@
         <x:v>48.8009</x:v>
       </x:c>
       <x:c r="L11" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M11" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N11" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O11">
         <x:v>27.5759</x:v>
@@ -3602,10 +3641,10 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" t="s">
         <x:v>17</x:v>
@@ -3635,13 +3674,13 @@
         <x:v>58.8191</x:v>
       </x:c>
       <x:c r="L12" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M12" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N12" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O12">
         <x:v>48.6645</x:v>
@@ -3691,10 +3730,10 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" t="s">
         <x:v>17</x:v>
@@ -3724,13 +3763,13 @@
         <x:v>62.3636</x:v>
       </x:c>
       <x:c r="L13" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M13" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N13" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O13">
         <x:v>58.8015</x:v>
@@ -3822,93 +3861,93 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J1" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K1" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L1" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M1" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N1" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O1" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P1" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="Q1" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="R1" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="S1" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="T1" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U1" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="V1" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="W1" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="X1" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="Y1" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="Z1" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AA1" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AB1" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="AC1" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AD1" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AE1" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="AF1" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="AG1" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="AH1" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="AI1" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
       <x:c r="A2" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" t="s">
         <x:v>17</x:v>
@@ -4012,10 +4051,10 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>17</x:v>
@@ -4119,7 +4158,7 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" t="s">
         <x:v>16</x:v>
@@ -4226,10 +4265,10 @@
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" t="s">
         <x:v>17</x:v>
@@ -4333,10 +4372,10 @@
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="C6" t="s">
         <x:v>17</x:v>
@@ -4440,10 +4479,10 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" t="s">
         <x:v>17</x:v>
@@ -4547,10 +4586,10 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>16</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" t="s">
         <x:v>17</x:v>
@@ -4654,10 +4693,10 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C9" t="s">
         <x:v>17</x:v>
@@ -4761,10 +4800,10 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" t="s">
         <x:v>17</x:v>
@@ -4868,10 +4907,10 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" t="s">
         <x:v>17</x:v>
